--- a/biology/Botanique/Myrialepis/Myrialepis.xlsx
+++ b/biology/Botanique/Myrialepis/Myrialepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Myrialepis est un genre de palmiers, plantes de la famille des Arecaceae. On l'appelle aussi Rotin, comme le genre Calamus ou Daemonorops et permet la confection de divers objets comme des meubles. Il contient l'unique espèce suivante :
 Myrialepis paradoxa</t>
@@ -511,12 +523,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Famille : Arecaceae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Famille : Arecaceae
 Sous-famille : Calamoideae
 Tribu : Calameae
-Sous-tribu : Plectocomiinae [1]</t>
+Sous-tribu : Plectocomiinae </t>
         </is>
       </c>
     </row>
